--- a/transition_tables/table_defs.xlsx
+++ b/transition_tables/table_defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salva\Documents\8vo\TC2037.602\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SalvadorMilanes\OneDrive\Lenovo_YOGA\Escritorio - Copy\8vo\Implementacion\TC2037.602\transition_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E64A32B-C52C-498A-9805-50BFFF2EC108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E4FB7F-F675-4C0D-AC9D-408B912E381D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{129F8781-A438-43C4-8C06-BEFD4535A7B0}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{129F8781-A438-43C4-8C06-BEFD4535A7B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,9 +444,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -484,7 +484,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -590,7 +590,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -732,7 +732,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -743,7 +743,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,9 +903,9 @@
         <f>B24</f>
         <v>q21</v>
       </c>
-      <c r="L3" s="6" t="str">
-        <f>$B$25</f>
-        <v>q22</v>
+      <c r="L3" s="19" t="str">
+        <f>$C$9</f>
+        <v>q6</v>
       </c>
       <c r="M3" s="19" t="str">
         <f>$B$9</f>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="L1" s="1" t="str">
         <f>Sheet1!L3</f>
-        <v>q22</v>
+        <v>q6</v>
       </c>
       <c r="M1" s="1" t="str">
         <f>Sheet1!N3</f>

--- a/transition_tables/table_defs.xlsx
+++ b/transition_tables/table_defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salva\Documents\8vo\TC2037.602\transition_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC0E093-BF92-41C8-948E-C82B9C50A448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C1B4CF-A3B5-4246-B42C-5AAC78A08B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{129F8781-A438-43C4-8C06-BEFD4535A7B0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>State</t>
   </si>
@@ -778,7 +778,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,51 +1005,51 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <f>$B$15</f>
+        <f t="shared" ref="D4:O4" si="0">$B$15</f>
         <v>12</v>
       </c>
       <c r="E4" s="7">
-        <f>$B$15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F4" s="7">
-        <f>$B$15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G4" s="7">
-        <f>$B$15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <f>$B$15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <f>$B$15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J4" s="7">
-        <f>$B$15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K4" s="7">
-        <f>$B$15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L4" s="7">
-        <f>$B$15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M4" s="7">
-        <f>$B$15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N4" s="7">
-        <f>$B$15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="O4" s="7">
-        <f>$B$15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="P4" s="18">
@@ -1057,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="Q4" s="6">
-        <f>$B$32</f>
+        <f t="shared" ref="Q4:Q9" si="1">$B$32</f>
         <v>29</v>
       </c>
       <c r="R4" s="18">
@@ -1065,11 +1065,11 @@
         <v>2</v>
       </c>
       <c r="S4" s="6">
-        <f>$B$32</f>
+        <f t="shared" ref="S4:T11" si="2">$B$32</f>
         <v>29</v>
       </c>
       <c r="T4" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -1085,51 +1085,51 @@
         <v>3</v>
       </c>
       <c r="D5" s="8">
-        <f>$B$16</f>
+        <f t="shared" ref="D5:O6" si="3">$B$16</f>
         <v>13</v>
       </c>
       <c r="E5" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="F5" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="G5" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="H5" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="I5" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="J5" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="K5" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="L5" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="M5" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="N5" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="O5" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="P5" s="6">
@@ -1137,19 +1137,19 @@
         <v>29</v>
       </c>
       <c r="Q5" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="R5" s="6">
-        <f>$B$32</f>
+        <f t="shared" ref="R5:R11" si="4">$B$32</f>
         <v>29</v>
       </c>
       <c r="S5" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="T5" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -1165,51 +1165,51 @@
         <v>3</v>
       </c>
       <c r="D6" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="E6" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="F6" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="G6" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="H6" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="I6" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="J6" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="K6" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="L6" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="M6" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="N6" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="O6" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="P6" s="18">
@@ -1217,19 +1217,19 @@
         <v>4</v>
       </c>
       <c r="Q6" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="R6" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="S6" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="T6" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -1253,63 +1253,63 @@
         <v>5</v>
       </c>
       <c r="F7" s="24">
-        <f>$B$32</f>
+        <f t="shared" ref="F7:P8" si="5">$B$32</f>
         <v>29</v>
       </c>
       <c r="G7" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="H7" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="I7" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="J7" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="K7" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="L7" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="M7" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="N7" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="O7" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="P7" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="Q7" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="R7" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="S7" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="T7" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -1333,63 +1333,63 @@
         <v>29</v>
       </c>
       <c r="F8" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="G8" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="H8" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="I8" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="J8" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="K8" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="L8" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="M8" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="N8" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="O8" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="P8" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="Q8" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="R8" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="S8" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="T8" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -1405,51 +1405,51 @@
         <v>6</v>
       </c>
       <c r="D9" s="8">
-        <f>$B$16</f>
+        <f t="shared" ref="D9:O9" si="6">$B$16</f>
         <v>13</v>
       </c>
       <c r="E9" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="F9" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="G9" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="H9" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="I9" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="J9" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="K9" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="L9" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="M9" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="N9" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="O9" s="8">
-        <f>$B$16</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="P9" s="24">
@@ -1457,19 +1457,19 @@
         <v>29</v>
       </c>
       <c r="Q9" s="24">
-        <f>$B$32</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="R9" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="S9" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="T9" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
         <v>7</v>
       </c>
       <c r="D10" s="14">
-        <f>$B$26</f>
+        <f t="shared" ref="D10:N10" si="7">$B$26</f>
         <v>23</v>
       </c>
       <c r="E10" s="14">
-        <f>$B$26</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="F10" s="14">
-        <f>$B$26</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="G10" s="14">
-        <f>$B$26</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="H10" s="14">
-        <f>$B$26</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="I10" s="14">
-        <f>$B$26</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="J10" s="14">
-        <f>$B$26</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="K10" s="14">
-        <f>$B$26</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="L10" s="14">
-        <f>$B$26</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="M10" s="14">
-        <f>$B$26</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="N10" s="14">
-        <f>$B$26</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="O10" s="14">
@@ -1541,15 +1541,15 @@
         <v>7</v>
       </c>
       <c r="R10" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="S10" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="T10" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -1621,15 +1621,15 @@
         <v>15</v>
       </c>
       <c r="R11" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="S11" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="T11" s="6">
-        <f>$B$32</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -1645,63 +1645,63 @@
         <v>9</v>
       </c>
       <c r="D12" s="18">
-        <f t="shared" ref="D12:T12" si="0">$B$12</f>
+        <f t="shared" ref="D12:T12" si="8">$B$12</f>
         <v>9</v>
       </c>
       <c r="E12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="F12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="H12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="I12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="J12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="K12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="L12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="M12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="N12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="O12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="P12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Q12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="R12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="S12" s="29">
@@ -1709,7 +1709,7 @@
         <v>28</v>
       </c>
       <c r="T12" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
@@ -1721,47 +1721,47 @@
         <v>10</v>
       </c>
       <c r="C13" s="19">
-        <f t="shared" ref="C13:M13" si="1">$B$13</f>
+        <f t="shared" ref="C13:M13" si="9">$B$13</f>
         <v>10</v>
       </c>
       <c r="D13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="E13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="F13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="G13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="H13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="K13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="L13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="M13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="N13" s="19">
@@ -1785,11 +1785,11 @@
         <v>10</v>
       </c>
       <c r="S13" s="19">
-        <f t="shared" ref="S13:T13" si="2">$B$13</f>
+        <f t="shared" ref="S13:T13" si="10">$B$13</f>
         <v>10</v>
       </c>
       <c r="T13" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
@@ -1801,75 +1801,75 @@
         <v>11</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:T29" si="3">$B$3</f>
+        <f t="shared" ref="C14:T29" si="11">$B$3</f>
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U14" s="1" t="s">
@@ -1884,75 +1884,75 @@
         <v>12</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U15" s="1" t="s">
@@ -1967,75 +1967,75 @@
         <v>13</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U16" s="1" t="s">
@@ -2050,75 +2050,75 @@
         <v>14</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U17" s="1" t="s">
@@ -2133,75 +2133,75 @@
         <v>15</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U18" s="1" t="s">
@@ -2216,75 +2216,75 @@
         <v>16</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U19" s="1" t="s">
@@ -2299,75 +2299,75 @@
         <v>17</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" ref="K20:Q21" si="4">$B$3</f>
+        <f t="shared" ref="K20:Q21" si="12">$B$3</f>
         <v>0</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U20" s="1" t="s">
@@ -2382,75 +2382,75 @@
         <v>18</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U21" s="1" t="s">
@@ -2465,75 +2465,75 @@
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:T32" si="5">$B$3</f>
+        <f t="shared" ref="D22:T32" si="13">$B$3</f>
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U22" s="1" t="s">
@@ -2548,75 +2548,75 @@
         <v>20</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ref="C23:R32" si="6">$B$3</f>
+        <f t="shared" ref="C23:R32" si="14">$B$3</f>
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U23" s="1" t="s">
@@ -2631,75 +2631,75 @@
         <v>21</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U24" s="1" t="s">
@@ -2714,75 +2714,75 @@
         <v>22</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U25" s="1" t="s">
@@ -2797,75 +2797,75 @@
         <v>23</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U26" s="1" t="s">
@@ -2880,75 +2880,75 @@
         <v>24</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U27" s="1" t="s">
@@ -2963,75 +2963,75 @@
         <v>25</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U28" s="1" t="s">
@@ -3046,75 +3046,75 @@
         <v>26</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U29" s="1" t="s">
@@ -3129,75 +3129,75 @@
         <v>27</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" ref="D30:T31" si="7">$B$3</f>
+        <f t="shared" ref="D30:T31" si="15">$B$3</f>
         <v>0</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U30" s="1" t="s">
@@ -3212,75 +3212,75 @@
         <v>28</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -3292,75 +3292,75 @@
         <v>29</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U32" s="1" t="s">
